--- a/CampaignTP (1).xlsx
+++ b/CampaignTP (1).xlsx
@@ -900,9 +900,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,56 +958,67 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1023,7 +1035,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0">
-  <autoFilter ref="A1:K31"/>
+  <autoFilter ref="A1:K31">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="TestScenarioID" dataDxfId="0"/>
     <tableColumn id="2" name="TestCaseID" dataDxfId="1"/>
@@ -1328,23 +1346,24 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.9809523809524" customWidth="1"/>
-    <col min="2" max="2" width="26.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="69.9809523809524" customWidth="1"/>
-    <col min="5" max="5" width="154.704761904762" customWidth="1"/>
-    <col min="6" max="6" width="7.83809523809524" customWidth="1"/>
-    <col min="7" max="7" width="128.838095238095" customWidth="1"/>
-    <col min="8" max="8" width="95.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.4095238095238" customWidth="1"/>
-    <col min="10" max="10" width="16.9809523809524" customWidth="1"/>
-    <col min="11" max="11" width="18.9809523809524" customWidth="1"/>
+    <col min="1" max="1" width="15.9809523809524" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.2666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="69.9809523809524" style="2" customWidth="1"/>
+    <col min="5" max="5" width="154.704761904762" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.83809523809524" style="2" customWidth="1"/>
+    <col min="7" max="7" width="128.838095238095" style="2" customWidth="1"/>
+    <col min="8" max="8" width="95.1333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.4095238095238" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.9809523809524" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.9809523809524" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1383,554 +1402,554 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9">
-      <c r="E3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="5:9">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9">
-      <c r="E4" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="5:9">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="6:9">
-      <c r="F5" t="s">
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="6:9">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="6:9">
-      <c r="F7" t="s">
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="6:9">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9">
-      <c r="E9" t="s">
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" spans="5:9">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9">
-      <c r="E10" t="s">
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="5:9">
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="6:9">
-      <c r="F11" t="s">
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="6:9">
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="6:9">
-      <c r="F13" t="s">
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="6:9">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9">
-      <c r="F14" t="s">
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" hidden="1" spans="6:9">
+      <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
-      <c r="E16" t="s">
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="5:9">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" t="s">
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="5:9">
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" t="s">
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="5:9">
+      <c r="E18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" t="s">
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="5:9">
+      <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="F20" t="s">
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="6:9">
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="F22" t="s">
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="6:9">
+      <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9">
-      <c r="E24" t="s">
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="5:9">
+      <c r="E24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9">
-      <c r="E25" t="s">
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="5:9">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9">
-      <c r="E26" t="s">
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="5:9">
+      <c r="E26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9">
-      <c r="E27" t="s">
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="5:9">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9">
-      <c r="F28" t="s">
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="6:9">
+      <c r="F28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="6:9">
-      <c r="F30" t="s">
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="6:9">
+      <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="6:9">
-      <c r="F31" t="s">
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="6:9">
+      <c r="F31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>18</v>
       </c>
     </row>
